--- a/将excel导出成dll/配置表/A模版.xlsx
+++ b/将excel导出成dll/配置表/A模版.xlsx
@@ -239,15 +239,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ListBeanName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>这行是没有用的，可写注释</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>注释行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_MyTest</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -530,11 +530,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -1143,20 +1143,20 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="10" spans="2:8">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15"/>
+      <c r="B11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1168,10 +1168,10 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4">
         <v>1</v>
       </c>
@@ -1183,10 +1183,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4">
         <v>1</v>
       </c>
@@ -1195,10 +1195,10 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4">
         <v>1</v>
       </c>
@@ -1207,10 +1207,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4">
         <v>1</v>
       </c>
@@ -1219,10 +1219,10 @@
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4">
         <v>1</v>
       </c>
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1243,10 +1243,10 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4">
         <v>1</v>
       </c>
@@ -1255,10 +1255,10 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="4">
         <v>1</v>
       </c>
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4">
         <v>1</v>
       </c>
@@ -1279,10 +1279,10 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4">
         <v>2</v>
       </c>
@@ -1291,10 +1291,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4">
         <v>3</v>
       </c>
@@ -1303,10 +1303,10 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="1">
         <v>4</v>
       </c>
@@ -1318,6 +1318,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -1327,11 +1332,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -1364,7 +1364,7 @@
     <row r="1" spans="1:7">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1374,7 +1374,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1387,7 +1387,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>29</v>
